--- a/eval_utils/corpus.xlsx
+++ b/eval_utils/corpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,223 +443,324 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Personal Details  
-Name: Surya G Ganesan  
-Who is Surya Ganesan  
-Business student with experience building AI applications for business use cases seeking a role as an AI developer.  
-Contact details  
-Email: suryaganesan925@gmail.com  
-LinkedIn profile: https://www.linkedin.com/in/surya-govindasamy-ganesan/  
-Portfolio link: https://suryaganesan.notion.site/Surya-G-Ganesan-Aspiring-AI-Dev-a57f7488be034d18822e3b3b412ed102  
-Phone number: +44 7436962389</t>
+          <t>## Personal Details
+Personal Details
+Name: Surya G Ganesan
+Who is Surya Ganesan
+Business student with experience building AI applications for business use cases seeking a role as an AI developer.
+Contact details
+Email: suryaganesan925@gmail.com
+LinkedIn profile: https://www.linkedin.com/in/surya-govindasamy-ganesan/
+Portfolio link: https://suryaganesan.notion.site/Surya-G-Ganesan-Aspiring-AI-Dev-a57f7488be034d18822e3b3b412ed102
+Phone number: +44 7436962389
+## Education
+Education
+Studying BA Business Management  at the University of Leeds between 2021 – 2025 (present)
+Relevant modules I studied: Business Analytics, Economics &amp; Finance, Management Research &amp; analysis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education  
-Studying BA Business Management  at the University of Leeds between 2021 – 2025 (present)  
-Relevant modules I studied: Business Analytics, Economics &amp; Finance, Management Research &amp; analysis.  
-I built Projects around the following topics during my university:  
-Pregnancy predictor: Produced a 2500-word data analytics report that analyses the purchasing history of 1000 customers to identify chances of pregnancy in their households.  
-Product discovery: Researched user problems and literature reviews to validate a product idea  
-Studied at The Indian Public School for high school education in India (Erode) between 2017 - 2021  
-Relevant Subjects I studied: Computer Science, Mathematics, Physics  
-Final scores in high school: 95%</t>
+          <t>Studying BA Business Management  at the University of Leeds between 2021 – 2025 (present)
+Relevant modules I studied: Business Analytics, Economics &amp; Finance, Management Research &amp; analysis.
+I built Projects around the following topics during my university:
+Pregnancy predictor: Produced a 2500-word data analytics report that analyses the purchasing history of 1000 customers to identify chances of pregnancy in their households.
+Product discovery: Researched user problems and literature reviews to validate a product idea
+Studied at The Indian Public School for high school education in India (Erode) between 2017 - 2021
+Relevant Subjects I studied: Computer Science, Mathematics, Physics</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Professional Experiences  
-Working as a Business Analyst intern at SAP from July 2023 to July 2024 (present)  
-What I’m doing at SAP:  
-Creating performance dashboards for different teams in the organisation  
-Conducting business analysis to identify reasons behind deal slippage in the organisation  
-Conducting strategic research on client companies to identify pain points and position SAP products  
-Worked as President at Enactus Leeds from Jun 2022 – June 2023 (12 months)  
-What I did at Enactus:  
-Lead a 11 people team that runs 3 social enterprise projects to impact the local community.  
-Delegate and assign tasks to ensure productivity and efficient time management by using digital systems (Fantastical and Notion).  
-Evaluate project proposals against the Lean product development concept. Set and prioritize tasks to achieve meaningful goals by defining purpose of the projects.  
-Grew student base over 150% compared to last year in a period of 8 months (from 37 to 198 members)  
-Worked at Guilty as  project founder from December 2022 – July 2023 (8 months)  
-What I did at the Guilty Project  
-Identify business problem through primary &amp; secondary research and validate start up idea through lean product development strategy by developing an MVP (Minimum Viable Product).  
-Developing JSON based backend with Python and cross platform front-end in Flutter.  
-Conducted competitor analysis and market segmentation to identify ideal customer profile of users.  
-Identified 70% of survey participants relayed back to their rough mental budget before making financial decisions.</t>
+          <t>Studied at The Indian Public School for high school education in India (Erode) between 2017 - 2021
+Relevant Subjects I studied: Computer Science, Mathematics, Physics
+Final scores in high school: 95%
+## Professional Experiences
+Professional Experiences
+Working as a Business Analyst intern at SAP from July 2023 to July 2024 (present)
+What I’m doing at SAP:
+Creating performance dashboards for different teams in the organisation
+Conducting business analysis to identify reasons behind deal slippage in the organisation
+Conducting strategic research on client companies to identify pain points and position SAP products</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Accomplishments and Miscellaneous  
-Supported to define the purpose and operation plan of two social enterprises as project consultant – Hear Her Out and The Power-Em Project.  
-Published an article on ‘How to fail a start-up’ that advises on how to deal with fear of failure as a start-up entrepreneur.  
-Extra-curricular  
-Writing • Boxing  •   Swimming  •   Table Tennis  •  
-Skills  
-Hard Skills:  
-Excel  
-PowerBI  
-Python  
-Data Analysis  
-Soft skills  
-Executive communication  
-Market Research  
-Presentation Skills  
-Content Writing</t>
+          <t>Conducting business analysis to identify reasons behind deal slippage in the organisation
+Conducting strategic research on client companies to identify pain points and position SAP products
+Worked as President at Enactus Leeds from Jun 2022 – June 2023 (12 months)
+What I did at Enactus:
+Lead a 11 people team that runs 3 social enterprise projects to impact the local community.
+Delegate and assign tasks to ensure productivity and efficient time management by using digital systems (Fantastical and Notion).
+Evaluate project proposals against the Lean product development concept. Set and prioritize tasks to achieve meaningful goals by defining purpose of the projects.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Surya G Ganesan: Aspiring AI Dev  
-Hi! I’m Surya and I’m a Business Analyst  
-I’m a self taught programmer interested in AI development, currently working as a business analyst.  
-I help business users capitalise on their data resources.  
-📭 Contact Details  
----  
-Send me an email: suryaganesan925@gmail.com  
-DM me on LinkedIn: [@suryagganesan](http://www.linkedin.com/in/suryagganesan)  
-Github profile: [@cod-ux](https://github.com/cod-ux)</t>
+          <t>Evaluate project proposals against the Lean product development concept. Set and prioritize tasks to achieve meaningful goals by defining purpose of the projects.
+Grew student base over 150% compared to last year in a period of 8 months (from 37 to 198 members)
+Worked at Guilty as  project founder from December 2022 – July 2023 (8 months)
+What I did at the Guilty Project
+Identify business problem through primary &amp; secondary research and validate start up idea through lean product development strategy by developing an MVP (Minimum Viable Product).
+Developing JSON based backend with Python and cross platform front-end in Flutter.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Project Portfolio  
-Completed Projects  
-1. Pregnancy Predictor (University)  
-Project description: Built a model that correctly predicts pregnancies in households based on a given data set of customer’s purchase history from a local store.  
-Methodology:  
-Identified and filtered features with high predictive power through a *Chi-Squared* test all of which were categorical.  
-Built the predictive tool with *logistic regression* since the output variable was binary categorical.  
-Chose the optimal cut-off value at the *pregnancy probability* with the least error rate.  
-Results:  
-The optimal cut-off value for *pregnancy probability* was at 50%.  
-2. A Minimalist’s Budgeting app  
-Project description: A budgeting dashboard built for mobile with Flutter for the frontend and Python (Flask) for the backend.  
-Key Features  
-Suggests and tracks the daily budget of the user based on budgeting goals  
-Teases the user with positive &amp; negative memes based on the user’s budget health  
-Forecasts and predicts the runway of the user’s allocated budget for the month  
-Result  
-Worked with startup mentors from the *[Who’s Fabio?*](https://www.whosfabio.com) community to identify a value proposition and launch for the student community.  
-Quote from startup mentor: *“You’ve done a really good job identifying struggles that we’ve noticed the in the market as well and building a value proposition”*  
-Github repositories to code for the project:  
-[https://github.com/cod-ux/guiltyv4.git](https://github.com/cod-ux/guiltyv4.git)  
-[https://github.com/cod-ux/server.git](https://github.com/cod-ux/server.git)</t>
+          <t>Developing JSON based backend with Python and cross platform front-end in Flutter.
+Conducted competitor analysis and market segmentation to identify ideal customer profile of users.
+Identified 70% of survey participants relayed back to their rough mental budget before making financial decisions.
+# Accomplishments and Miscellaneous
+Accomplishments and Miscellaneous
+Supported to define the purpose and operation plan of two social enterprises as project consultant – Hear Her Out and The Power-Em Project.
+Published an article on ‘How to fail a start-up’ that advises on how to deal with fear of failure as a start-up entrepreneur.
+Extra-curricular</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ongoing Projects  
-3. Deal Success Predictor (SAP)  
-Project description: A python based *Scikit-learn* model that predicted if a sales deal would close within the next quarter or not.  
-Methodology:  
-Created a data set of 100 deals with 22 features, half of the deals won within one quarter of engagement and the other half stagnant or lost.  
-Conduct exploratory data analysis and hypothesis testing with *Scipy* and *pandas* to filter significant features  
-Built and train a *Random Forests* model to predict deals that will are likely to close within a quarter  
-Initial results &amp; Challenges:  
-With initial results, model shows an accuracy of 75% with labelled test data.  
-Model is being tested to use for prioritising deals to support by a support team in the enterprise  
-When used with new unlabelled data, model wrongly predicted stagnant deals to be good deals according to subject matter experts.  
-Note: The data used for this project belongs to the employer and is hence confidential</t>
+          <t>Published an article on ‘How to fail a start-up’ that advises on how to deal with fear of failure as a start-up entrepreneur.
+Extra-curricular
+    Writing • Boxing  •   Swimming  •   Table Tennis  •
+Skills
+Hard Skills:
+Excel
+PowerBI
+Python
+Data Analysis
+Soft skills
+Executive communication
+Market Research
+Presentation Skills
+Content Writing 
+# Surya G Ganesan: Aspiring AI Dev
+Surya G Ganesan: Aspiring AI Dev
+Hi! I’m Surya and I’m a Business Analyst
+I’m a self taught programmer interested in AI development, currently working as a business analyst.
+I help business users capitalise on their data resources.
+📭 Contact Details
+---
+Send me an email: suryaganesan925@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FAQs  
-**About me**  
-What programming languages do I know?  
-- Python  
-- SQL  
-What skills have I developed?  
-Hard Skills  
-- Excel  
-- PowerBI  
-- Python  
-- Data Analysis  
-- Flask  
-- pandas, numpy  
-- sklearn  
-- Fastai  
-Soft Skills  
-- Executive communication  
-- Market Research  
-- Presentation Skills  
-- Content Writing  
-What are some python frameworks I am familiar with?  
-- Flask  
-- pandas, numpy  
-- sklearn  
-- Fastai</t>
+          <t>I help business users capitalise on their data resources.
+📭 Contact Details
+---
+Send me an email: suryaganesan925@gmail.com
+DM me on LinkedIn: [@suryagganesan](http://www.linkedin.com/in/suryagganesan)
+Github profile: [@cod-ux](https://github.com/cod-ux)
+# Project Portfolio
+Project Portfolio
+Completed Projects
+1. Pregnancy Predictor (University)
+Project description: Built a model that correctly predicts pregnancies in households based on a given data set of customer’s purchase history from a local store.
+Methodology:
+Identified and filtered features with high predictive power through a *Chi-Squared* test all of which were categorical.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>How many years of professional experience do I have?  
-- Marketing Co-ordinator at a Fintech Startup (6 months)  
-- Value Advisor at SAP (13 months)  
-(Business student at Leeds, graduating Sept 2025)</t>
+          <t>Methodology:
+Identified and filtered features with high predictive power through a *Chi-Squared* test all of which were categorical.
+Built the predictive tool with *logistic regression* since the output variable was binary categorical.
+Chose the optimal cut-off value at the *pregnancy probability* with the least error rate.
+Results:
+The optimal cut-off value for *pregnancy probability* was at 50%.
+2. A Minimalist’s Budgeting app
+Project description: A budgeting dashboard built for mobile with Flutter for the frontend and Python (Flask) for the backend.
+Key Features
+Suggests and tracks the daily budget of the user based on budgeting goals</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>The Guilty Project  
-A Python app that makes a daily forecast on how much the user is expected to spend that month based on their spending so far and sends an email notification to the user if the forecasted amount is more than their budget saying they should spend only 'x' amount today if they want to get back on track with their budget.  
-The app is made with streamlit, firebase and the nordigen (Gocardless) API.</t>
+          <t>Key Features
+Suggests and tracks the daily budget of the user based on budgeting goals
+Teases the user with positive &amp; negative memes based on the user’s budget health
+Forecasts and predicts the runway of the user’s allocated budget for the month
+Result
+Worked with startup mentors from the *[Who’s Fabio?*](https://www.whosfabio.com) community to identify a value proposition and launch for the student community.
+Quote from startup mentor: *“You’ve done a really good job identifying struggles that we’ve noticed the in the market as well and building a value proposition”*
+Github repositories to code for the project:</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>How the Guilty project app works  
-The app is designed as a web application and is made with streamlit due to its simple and easy nature. Users can sign up for the app by providing info on their budget, email address and connecting their bank account to track and receive emails when their forecasted spending for the month exceeds their budget, along with how much they should spend that day to get back on track with spending under budget.  
-The app uses nordigen (GoCardless) to connect to the users' bank accounts, and store authentication tokens and user info during the onboarding process in firebase.  
-Once signed up, the user will receive an onboarding email giving instructions on how the forecasting is calculated when they will typically receive emails and the conetents of the email (such as expected monthly spend, how much to spend that day to get back on track, and what to do if they have unavoidable incoming expenses)  
-Users can log in to the web app after signing up to change their settings, such as - email, username, budget amount, pay date, etc...  
-The Forecasting process  
-The amount of money spent in the last 7 days divided by 7 provides the **average spending rate**, which is multiplied by the days remaining in the budget month to forecast the money spent that month.  
-When calculating the total money spent in a time period, if 'x' pounds are spent from the bank account and 'x' pounds are sent to the bank account, then it is considered as no money spent. This is to take into account friends splitting bills, and paying back any previous expenses  
-No transaction with a value above 15% of the total budget is taken into account when calculating total money spent, as usually these are miscellaneous transactions that are not part of the monthly budgets (like tuition expenses, rent, etc...)  
-Distribution:  
-The program is primarily distributed as a web app that users can access on: &lt;a href="URL&gt; https:// &lt;/a&gt;</t>
+          <t>Github repositories to code for the project:
+[https://github.com/cod-ux/guiltyv4.git](https://github.com/cod-ux/guiltyv4.git)
+[https://github.com/cod-ux/server.git](https://github.com/cod-ux/server.git)
+# Ongoing Projects
+Ongoing Projects
+3. Deal Success Predictor (SAP)
+Project description: A python based *Scikit-learn* model that predicted if a sales deal would close within the next quarter or not.
+Methodology:
+Created a data set of 100 deals with 22 features, half of the deals won within one quarter of engagement and the other half stagnant or lost.
+Conduct exploratory data analysis and hypothesis testing with *Scipy* and *pandas* to filter significant features</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Challenges faced in the Guilty Project:  
-Finding a suitable library to connect to the user's bank data was difficult as it needed to be both simple and cost-effective for an open-source free-to-use project. Among many other options (ex: Plaid, TrueLayer) Nordigen was the the best fit in these categories.  
-With the same metrics of simplicity and cost-effectiveness in mind, I wanted an easy low-code/no-code front-end solution to showcase the web app. Unlike most options (bubble io, flutter, javascript), streamlit was the best simple and free solution I had.  
-There was also a struggle with deciding if the program should be a web app, a flutter-based mobile app, or something else. But nothing was as effective as combining a signup page and an email system, instead of a full-scale app.</t>
+          <t>Conduct exploratory data analysis and hypothesis testing with *Scipy* and *pandas* to filter significant features
+Built and train a *Random Forests* model to predict deals that will are likely to close within a quarter
+Initial results &amp; Challenges:
+With initial results, model shows an accuracy of 75% with labelled test data.
+Model is being tested to use for prioritising deals to support by a support team in the enterprise
+When used with new unlabelled data, model wrongly predicted stagnant deals to be good deals according to subject matter experts.
+Note: The data used for this project belongs to the employer and is hence confidential
+# FAQs
+FAQs
+**About me**</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Features for the future of the Guilty Project  
-Display all transactions and select transactions that are not part of the budget to exclude them from all calculations  
-AI-generated memes/jokes in the email to motivate the user into spending less (ex: A roasting joke on the state of their bank account)  
+          <t>Note: The data used for this project belongs to the employer and is hence confidential
+# FAQs
+FAQs
+**About me**
+What programming languages do I know?
+- Python
+- SQL
+What skills have I developed?
+    Hard Skills
+- Excel
+- PowerBI
+- Python
+- Data Analysis
+- Flask
+- pandas, numpy
+- sklearn
+- Fastai
+    Soft Skills
+- Executive communication
+- Market Research
+- Presentation Skills
+- Content Writing
+What are some python frameworks I am familiar with?
+- Flask
+- pandas, numpy
+- sklearn
+- Fastai
+#
+How many years of professional experience do I have?
+- Marketing Co-ordinator at a Fintech Startup (6 months)
+- Value Advisor at SAP (13 months)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>- Flask
+- pandas, numpy
+- sklearn
+- Fastai
+#
+How many years of professional experience do I have?
+- Marketing Co-ordinator at a Fintech Startup (6 months)
+- Value Advisor at SAP (13 months)
+    (Business student at Leeds, graduating Sept 2025) 
+# The Guilty Project
+The Guilty Project
+A Python app that makes a daily forecast on how much the user is expected to spend that month based on their spending so far and sends an email notification to the user if the forecasted amount is more than their budget saying they should spend only 'x' amount today if they want to get back on track with their budget. 
+The app is made with streamlit, firebase and the nordigen (Gocardless) API.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>The app is made with streamlit, firebase and the nordigen (Gocardless) API.
+## How the Guilty project app works
+How the Guilty project app works
+The app is designed as a web application and is made with streamlit due to its simple and easy nature. Users can sign up for the app by providing info on their budget, email address and connecting their bank account to track and receive emails when their forecasted spending for the month exceeds their budget, along with how much they should spend that day to get back on track with spending under budget.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>The app uses nordigen (GoCardless) to connect to the users' bank accounts, and store authentication tokens and user info during the onboarding process in firebase.
+Once signed up, the user will receive an onboarding email giving instructions on how the forecasting is calculated when they will typically receive emails and the conetents of the email (such as expected monthly spend, how much to spend that day to get back on track, and what to do if they have unavoidable incoming expenses)
+Users can log in to the web app after signing up to change their settings, such as - email, username, budget amount, pay date, etc...
+The Forecasting process</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Users can log in to the web app after signing up to change their settings, such as - email, username, budget amount, pay date, etc...
+The Forecasting process
+The amount of money spent in the last 7 days divided by 7 provides the **average spending rate**, which is multiplied by the days remaining in the budget month to forecast the money spent that month.
+When calculating the total money spent in a time period, if 'x' pounds are spent from the bank account and 'x' pounds are sent to the bank account, then it is considered as no money spent. This is to take into account friends splitting bills, and paying back any previous expenses</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>No transaction with a value above 15% of the total budget is taken into account when calculating total money spent, as usually these are miscellaneous transactions that are not part of the monthly budgets (like tuition expenses, rent, etc...)
+Distribution:
+The program is primarily distributed as a web app that users can access on: &lt;a href="URL&gt; https:// &lt;/a&gt;
+## Challenges faced in the Guilty Project:
+Challenges faced in the Guilty Project:</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>The program is primarily distributed as a web app that users can access on: &lt;a href="URL&gt; https:// &lt;/a&gt;
+## Challenges faced in the Guilty Project:
+Challenges faced in the Guilty Project:
+Finding a suitable library to connect to the user's bank data was difficult as it needed to be both simple and cost-effective for an open-source free-to-use project. Among many other options (ex: Plaid, TrueLayer) Nordigen was the the best fit in these categories.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>With the same metrics of simplicity and cost-effectiveness in mind, I wanted an easy low-code/no-code front-end solution to showcase the web app. Unlike most options (bubble io, flutter, javascript), streamlit was the best simple and free solution I had.
+There was also a struggle with deciding if the program should be a web app, a flutter-based mobile app, or something else. But nothing was as effective as combining a signup page and an email system, instead of a full-scale app.
+## Features for the future of the Guilty Project
+Features for the future of the Guilty Project</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>## Features for the future of the Guilty Project
+Features for the future of the Guilty Project
+Display all transactions and select transactions that are not part of the budget to exclude them from all calculations
+AI-generated memes/jokes in the email to motivate the user into spending less (ex: A roasting joke on the state of their bank account)
 Offer discounts and deals from famous vendors to satisfy cravings and help reduce spending</t>
         </is>
       </c>

--- a/eval_utils/corpus.xlsx
+++ b/eval_utils/corpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,9 +443,8 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>## Personal Details
-Personal Details
-Name: Surya G Ganesan
+          <t>Personal Details
+Name: Surya Govindasamy Ganesan
 Who is Surya Ganesan
 Business student with experience building AI applications for business use cases seeking a role as an AI developer.
 Contact details
@@ -453,134 +452,285 @@
 LinkedIn profile: https://www.linkedin.com/in/surya-govindasamy-ganesan/
 Portfolio link: https://suryaganesan.notion.site/Surya-G-Ganesan-Aspiring-AI-Dev-a57f7488be034d18822e3b3b412ed102
 Phone number: +44 7436962389
-## Education
+Education
+Studying BA Business Management  at the University of Leeds between 2021 – 2025 (present)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Phone number: +44 7436962389
 Education
 Studying BA Business Management  at the University of Leeds between 2021 – 2025 (present)
-Relevant modules I studied: Business Analytics, Economics &amp; Finance, Management Research &amp; analysis.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Studying BA Business Management  at the University of Leeds between 2021 – 2025 (present)
 Relevant modules I studied: Business Analytics, Economics &amp; Finance, Management Research &amp; analysis.
 I built Projects around the following topics during my university:
 Pregnancy predictor: Produced a 2500-word data analytics report that analyses the purchasing history of 1000 customers to identify chances of pregnancy in their households.
-Product discovery: Researched user problems and literature reviews to validate a product idea
-Studied at The Indian Public School for high school education in India (Erode) between 2017 - 2021
-Relevant Subjects I studied: Computer Science, Mathematics, Physics</t>
+Product discovery: Researched user problems and literature reviews to validate a product idea</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Studied at The Indian Public School for high school education in India (Erode) between 2017 - 2021
+          <t>Product discovery: Researched user problems and literature reviews to validate a product idea
+Studied at The Indian Public School for high school education in India (Erode) between 2017 - 2021
 Relevant Subjects I studied: Computer Science, Mathematics, Physics
 Final scores in high school: 95%
-## Professional Experiences
 Professional Experiences
 Working as a Business Analyst intern at SAP from July 2023 to July 2024 (present)
 What I’m doing at SAP:
 Creating performance dashboards for different teams in the organisation
-Conducting business analysis to identify reasons behind deal slippage in the organisation
-Conducting strategic research on client companies to identify pain points and position SAP products</t>
+Conducting business analysis to identify reasons behind deal slippage in the organisation</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Conducting business analysis to identify reasons behind deal slippage in the organisation
+          <t>What I’m doing at SAP:
+Creating performance dashboards for different teams in the organisation
+Conducting business analysis to identify reasons behind deal slippage in the organisation
 Conducting strategic research on client companies to identify pain points and position SAP products
 Worked as President at Enactus Leeds from Jun 2022 – June 2023 (12 months)
 What I did at Enactus:
+Lead a 11 people team that runs 3 social enterprise projects to impact the local community.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Worked as President at Enactus Leeds from Jun 2022 – June 2023 (12 months)
+What I did at Enactus:
 Lead a 11 people team that runs 3 social enterprise projects to impact the local community.
 Delegate and assign tasks to ensure productivity and efficient time management by using digital systems (Fantastical and Notion).
-Evaluate project proposals against the Lean product development concept. Set and prioritize tasks to achieve meaningful goals by defining purpose of the projects.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Evaluate project proposals against the Lean product development concept. Set and prioritize tasks to achieve meaningful goals by defining purpose of the projects.
-Grew student base over 150% compared to last year in a period of 8 months (from 37 to 198 members)
+Evaluate project proposals against the Lean product development concept. Set and prioritize tasks to achieve meaningful goals by defining purpose of the projects.
+Grew student base over 150% compared to last year in a period of 8 months (from 37 to 198 members)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Grew student base over 150% compared to last year in a period of 8 months (from 37 to 198 members)
 Worked at Guilty as  project founder from December 2022 – July 2023 (8 months)
 What I did at the Guilty Project
 Identify business problem through primary &amp; secondary research and validate start up idea through lean product development strategy by developing an MVP (Minimum Viable Product).
-Developing JSON based backend with Python and cross platform front-end in Flutter.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+Developing JSON based backend with Python and cross platform front-end in Flutter.
+Conducted competitor analysis and market segmentation to identify ideal customer profile of users.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Developing JSON based backend with Python and cross platform front-end in Flutter.
 Conducted competitor analysis and market segmentation to identify ideal customer profile of users.
 Identified 70% of survey participants relayed back to their rough mental budget before making financial decisions.
-# Accomplishments and Miscellaneous
 Accomplishments and Miscellaneous
+Supported to define the purpose and operation plan of two social enterprises as project consultant – Hear Her Out and The Power-Em Project.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Accomplishments and Miscellaneous
 Supported to define the purpose and operation plan of two social enterprises as project consultant – Hear Her Out and The Power-Em Project.
 Published an article on ‘How to fail a start-up’ that advises on how to deal with fear of failure as a start-up entrepreneur.
-Extra-curricular</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Published an article on ‘How to fail a start-up’ that advises on how to deal with fear of failure as a start-up entrepreneur.
 Extra-curricular
     Writing • Boxing  •   Swimming  •   Table Tennis  •
-Skills
-Hard Skills:
-Excel
-PowerBI
-Python
-Data Analysis
-Soft skills
-Executive communication
-Market Research
-Presentation Skills
-Content Writing 
-# Surya G Ganesan: Aspiring AI Dev
-Surya G Ganesan: Aspiring AI Dev
+Additional context</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Personal Summary: I am Surya Govindasamy Ganesan, an international student from India who studies BA Business management at the university of Leeds. I moved to the UK in 2021 to pursue my degree in business. After finishing the second year of my degree, I landed a placement programme with SAP where I work for one year in different departments to gather more experience. After finishing my one year placement programme that goes from 1st July 2023 to 31st July 2024, I will go back to university to finish the final year of my degree between September 2024 and June 2025.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Currently I am working at SAP in different departments doing a variety of work including business analysis in the programs office (creating business reports on performance and productivity), Value advisory as part of the Industry Value advisory organisation (Advising SAP customers on the business value of investing in SAP software like S/4HANA Cloud), and as an associate AI engineer in Singapore’s AI use cases team (Learning to build and evaluate RAG bots).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Education and projects - Skills developed during the period: I did my high school education in India at the Indian public school where I chose Maths, Physics and Computer Science as my primary subjects. I graduated from high school with an overall 95%. During my first year at university I did a business analytics module where I learnt the maths behind building different predictive models like linear regression and logistic regression. I built skills in analysing datasets and building predictive models with excel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>At the end of the first year I also managed land a part time role at an international money transfer startup called “Easy Transfer” holding a marketing role in conducting marketing campaigns with the student community and explaining the service to first time customers.
+During my second year of university I ran a student society for social entrepreneurs. I led a team of 9 people that helped me conduct several events with an average footfall of 50+ students. This experience helped me develop my skills in collaboration, leadership and planning and executing a strategy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>In the second half of my second year at university I decided to build a budgeting app for minimalist students who want to control their impulse spending behaviours. It was called “the guilty project”. I finished building the app after interviewing several students who had trouble managing their finances, and I built the app with flutter for the front end and python with flask for the backend. During this time I taught myself how to build apps with Flutter and Python servers, and also learnt to host a server on the cloud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Placement program with SAP: Currently during the year of my placement program, I am working in three different departments from time to time – Value Advisory, Reporting and Enablement, and AI engineering.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>In the first four months of my placement I developed my skills in value selling and learnt about the B2B software space. by helping create value pitch decks for SAP’s cloud ERP products like SAP S/4HANA, Digital Supply Chain and Customer Experience products. A huge part of my role there was to create a business case for investing in SAP products by collecting customer’s operational data, identify the customer’s key value drivers and calculate expected benefit ranges for the customer in a specific industry in terms of potential new revenue generated, cost cut down and increase in</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>identify the customer’s key value drivers and calculate expected benefit ranges for the customer in a specific industry in terms of potential new revenue generated, cost cut down and increase in sustainability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>In the second four months of my placement, I was working as an associate business analyst for the UKI Value advisory department. This meant that I created end of quarter and end of year performance reports using excel and SAP’s SAC database (SAP Analytics cloud database), highlighting trends that occurred in the period, tracking targets and analysing anomalies. I worked with tools like PowerBI, excel and SAC cloud to source data, clean them, interpret data and visualise results.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>During the last five months of my placement program, between March 2024 and July 2024 I am working as an associate GenAI engineer shadowing an experienced colleague from the field where I am learning about building RAG chatbots in python and the langchain framework using open source tools, evaluating and improving their performance using the phoenix framework to evaluate their reliability, relevancy and hallucination metrics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>During the first four months of placement period I was self learning the basic’s of artificial intelligence by taking CS50’s Introduction to machine learning course where I learnt different AI algorithms that were being used before machine learning became popular like Depth first search, Best-First search, KNN algorithms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>During the second four months of the placement period, I self-taught myself machine learning in python where I learnt about the different machine learning concepts used to make predictions like Decision trees, Linear regression, Random Forests and Gradient Boosting techniques. I put these concepts into practise by building a “sales deal success predictor” project that relied on CRM data downloaded from SAC so that members of the value advisory department can prioritise which deals to support first based on how likely they are to close.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>To build the sales deal predictor project I created a dataset that had information about a 100 sales deals classified as successful or lost, which included relevant variables in predicting success of a deal that were chosen based on the personal experience of my colleagues. After dividing them into training and test dataset, I tested different predictive models to predict the success of deals with cross validation in scikit-learn and identified that Random forests had the highest accuracy in predicting deal success. After tuning hyper-parameters like max depth and number of decision trees, I</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>cross validation in scikit-learn and identified that Random forests had the highest accuracy in predicting deal success. After tuning hyper-parameters like max depth and number of decision trees, I arrived at a model accuracy of 65%. Through experience my colleagues identified that even SAP’s internal deal prioritiser that is based on similar data sources can only offer such level of accuracy. Hence I was able to replicate the deal success predictor that we used within the company and was a fun experience where I learned about the basics of machine learning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>During the last five months of the placement period, I also self-taught myself about building deep learning models with pytorch outside of my work hours to understand the math and logic behind modern Generative AI technology. I’ve learnt about the basics of pytroch, training a simple neural network, building a convolutional neural network, using residual blocks, weight decay and learning rate scheduling to improve performance, training a neural network on GPU, the ResNet9 architecture for image classification and hyper-paramater tuning to build, train and improve the performance of a neural</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>to improve performance, training a neural network on GPU, the ResNet9 architecture for image classification and hyper-paramater tuning to build, train and improve the performance of a neural network while tackling the vanishing gradient problem.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Skills I’ve developed for being an AI engineer: During high school and university I’ve developed my python programming skills by buildings apps, servers and other side projects. During my placement program with SAP I developed my skills in machine learning and deep learning by learning to build different types of predictive models including neural networks. Working as a business analyst has allowed me to learn about data transformation, data cleaning and presenting technical information. While working as an associate GenAI engineer, I’ve learnt to build agent chains using the langchain</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>allowed me to learn about data transformation, data cleaning and presenting technical information. While working as an associate GenAI engineer, I’ve learnt to build agent chains using the langchain framework in python and trace and evaluate RAG bots using the phoenix framework in python. I’ve developed all of the mentioned skills to become a high performing AI engineer. Out of all the projects I have worked on, the RAG chatbot that I built to answer questions about my CV is by far the most interesting for me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Job role expectations: I want to work on a role like AI engineer or ML developer or GenAI engineer, where I get to work on interesting new ideas. I want work in a role that revolves around either building applications with large language models or other Generative technologies or training and fine tuning LLMs for specific use cases. I am looking for a minimum salary of £35k pounds, preferably in London.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Skills that I’m trying to develop: I am trying to develop my skills in learning to use Knowledge graphs in my langchain applications, learn to build multimodal retrieval applications and also learn to build and train transformer models to understand the basic technology that generative AI is dependant on.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>What I am doing currently: My name is Surya Govindasamy Ganesan. I am currently both a student and in full time work. I’m studying at the university of leeds and graduating in June 2025 with Bachelor of arts in Business management. As part of my course, I am currently doing a placement program with SAP as part of my degree. So, while I am working at SAP full time as an employee, I am also a student.
+Surya Govindasamy Ganesan: Aspiring AI Dev
 Hi! I’m Surya and I’m a Business Analyst
+I’m a self taught programmer interested in AI development, currently working as a business analyst.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Hi! I’m Surya and I’m a Business Analyst
 I’m a self taught programmer interested in AI development, currently working as a business analyst.
 I help business users capitalise on their data resources.
-📭 Contact Details
----
-Send me an email: suryaganesan925@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>I help business users capitalise on their data resources.
 📭 Contact Details
 ---
 Send me an email: suryaganesan925@gmail.com
 DM me on LinkedIn: [@suryagganesan](http://www.linkedin.com/in/suryagganesan)
 Github profile: [@cod-ux](https://github.com/cod-ux)
-# Project Portfolio
+Project Portfolio
+Completed Projects
+1. Pregnancy Predictor (University)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Github profile: [@cod-ux](https://github.com/cod-ux)
 Project Portfolio
 Completed Projects
 1. Pregnancy Predictor (University)
 Project description: Built a model that correctly predicts pregnancies in households based on a given data set of customer’s purchase history from a local store.
 Methodology:
-Identified and filtered features with high predictive power through a *Chi-Squared* test all of which were categorical.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Methodology:
 Identified and filtered features with high predictive power through a *Chi-Squared* test all of which were categorical.
-Built the predictive tool with *logistic regression* since the output variable was binary categorical.
+Built the predictive tool with *logistic regression* since the output variable was binary categorical.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Built the predictive tool with *logistic regression* since the output variable was binary categorical.
 Chose the optimal cut-off value at the *pregnancy probability* with the least error rate.
 Results:
 The optimal cut-off value for *pregnancy probability* was at 50%.
@@ -591,8 +741,8 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Key Features
 Suggests and tracks the daily budget of the user based on budgeting goals
@@ -600,48 +750,56 @@
 Forecasts and predicts the runway of the user’s allocated budget for the month
 Result
 Worked with startup mentors from the *[Who’s Fabio?*](https://www.whosfabio.com) community to identify a value proposition and launch for the student community.
-Quote from startup mentor: *“You’ve done a really good job identifying struggles that we’ve noticed the in the market as well and building a value proposition”*
-Github repositories to code for the project:</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Github repositories to code for the project:
-[https://github.com/cod-ux/guiltyv4.git](https://github.com/cod-ux/guiltyv4.git)
-[https://github.com/cod-ux/server.git](https://github.com/cod-ux/server.git)
-# Ongoing Projects
+Quote from startup mentor: *“You’ve done a really good job identifying struggles that we’ve noticed the in the market as well and building a value proposition”*</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Quote from startup mentor: *“You’ve done a really good job identifying struggles that we’ve noticed the in the market as well and building a value proposition”*
+Github repositories for the Guilty project:
+Flutter frontend: [https://github.com/cod-ux/guiltyv4.git](https://github.com/cod-ux/guiltyv4.git)
+Python server code: [https://github.com/cod-ux/server.git](https://github.com/cod-ux/server.git)
 Ongoing Projects
+3. Deal Success Predictor (SAP)
+Project description: A python based *Scikit-learn* model that predicted if a sales deal would close within the next quarter or not.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ongoing Projects
 3. Deal Success Predictor (SAP)
 Project description: A python based *Scikit-learn* model that predicted if a sales deal would close within the next quarter or not.
 Methodology:
 Created a data set of 100 deals with 22 features, half of the deals won within one quarter of engagement and the other half stagnant or lost.
-Conduct exploratory data analysis and hypothesis testing with *Scipy* and *pandas* to filter significant features</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Conduct exploratory data analysis and hypothesis testing with *Scipy* and *pandas* to filter significant features
+Conduct exploratory data analysis and hypothesis testing with *Scipy* and *pandas* to filter significant features
 Built and train a *Random Forests* model to predict deals that will are likely to close within a quarter
+Initial results &amp; Challenges:</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Built and train a *Random Forests* model to predict deals that will are likely to close within a quarter
 Initial results &amp; Challenges:
 With initial results, model shows an accuracy of 75% with labelled test data.
 Model is being tested to use for prioritising deals to support by a support team in the enterprise
 When used with new unlabelled data, model wrongly predicted stagnant deals to be good deals according to subject matter experts.
 Note: The data used for this project belongs to the employer and is hence confidential
-# FAQs
 FAQs
-**About me**</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+**About me**
+What programming languages do I know?</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>Note: The data used for this project belongs to the employer and is hence confidential
-# FAQs
 FAQs
 **About me**
 What programming languages do I know?
@@ -668,16 +826,17 @@
 - sklearn
 - Fastai
 #
-How many years of professional experience do I have?
-- Marketing Co-ordinator at a Fintech Startup (6 months)
-- Value Advisor at SAP (13 months)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>- Flask
+How many years of professional experience do I have?</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>- Presentation Skills
+- Content Writing
+What are some python frameworks I am familiar with?
+- Flask
 - pandas, numpy
 - sklearn
 - Fastai
@@ -685,82 +844,81 @@
 How many years of professional experience do I have?
 - Marketing Co-ordinator at a Fintech Startup (6 months)
 - Value Advisor at SAP (13 months)
-    (Business student at Leeds, graduating Sept 2025) 
-# The Guilty Project
+    (Business student at Leeds, graduating Sept 2025)
+The Guilty Project</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>- Marketing Co-ordinator at a Fintech Startup (6 months)
+- Value Advisor at SAP (13 months)
+    (Business student at Leeds, graduating Sept 2025)
 The Guilty Project
 A Python app that makes a daily forecast on how much the user is expected to spend that month based on their spending so far and sends an email notification to the user if the forecasted amount is more than their budget saying they should spend only 'x' amount today if they want to get back on track with their budget. 
 The app is made with streamlit, firebase and the nordigen (Gocardless) API.</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>The app is made with streamlit, firebase and the nordigen (Gocardless) API.
-## How the Guilty project app works
 How the Guilty project app works
 The app is designed as a web application and is made with streamlit due to its simple and easy nature. Users can sign up for the app by providing info on their budget, email address and connecting their bank account to track and receive emails when their forecasted spending for the month exceeds their budget, along with how much they should spend that day to get back on track with spending under budget.</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>The app uses nordigen (GoCardless) to connect to the users' bank accounts, and store authentication tokens and user info during the onboarding process in firebase.
-Once signed up, the user will receive an onboarding email giving instructions on how the forecasting is calculated when they will typically receive emails and the conetents of the email (such as expected monthly spend, how much to spend that day to get back on track, and what to do if they have unavoidable incoming expenses)
-Users can log in to the web app after signing up to change their settings, such as - email, username, budget amount, pay date, etc...
-The Forecasting process</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+Once signed up, the user will receive an onboarding email giving instructions on how the forecasting is calculated when they will typically receive emails and the conetents of the email (such as expected monthly spend, how much to spend that day to get back on track, and what to do if they have unavoidable incoming expenses)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>Users can log in to the web app after signing up to change their settings, such as - email, username, budget amount, pay date, etc...
 The Forecasting process
-The amount of money spent in the last 7 days divided by 7 provides the **average spending rate**, which is multiplied by the days remaining in the budget month to forecast the money spent that month.
-When calculating the total money spent in a time period, if 'x' pounds are spent from the bank account and 'x' pounds are sent to the bank account, then it is considered as no money spent. This is to take into account friends splitting bills, and paying back any previous expenses</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>No transaction with a value above 15% of the total budget is taken into account when calculating total money spent, as usually these are miscellaneous transactions that are not part of the monthly budgets (like tuition expenses, rent, etc...)
-Distribution:
-The program is primarily distributed as a web app that users can access on: &lt;a href="URL&gt; https:// &lt;/a&gt;
-## Challenges faced in the Guilty Project:
+The amount of money spent in the last 7 days divided by 7 provides the **average spending rate**, which is multiplied by the days remaining in the budget month to forecast the money spent that month.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>When calculating the total money spent in a time period, if 'x' pounds are spent from the bank account and 'x' pounds are sent to the bank account, then it is considered as no money spent. This is to take into account friends splitting bills, and paying back any previous expenses
+No transaction with a value above 15% of the total budget is taken into account when calculating total money spent, as usually these are miscellaneous transactions that are not part of the monthly budgets (like tuition expenses, rent, etc...)
 Challenges faced in the Guilty Project:</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>The program is primarily distributed as a web app that users can access on: &lt;a href="URL&gt; https:// &lt;/a&gt;
-## Challenges faced in the Guilty Project:
-Challenges faced in the Guilty Project:
-Finding a suitable library to connect to the user's bank data was difficult as it needed to be both simple and cost-effective for an open-source free-to-use project. Among many other options (ex: Plaid, TrueLayer) Nordigen was the the best fit in these categories.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>With the same metrics of simplicity and cost-effectiveness in mind, I wanted an easy low-code/no-code front-end solution to showcase the web app. Unlike most options (bubble io, flutter, javascript), streamlit was the best simple and free solution I had.
-There was also a struggle with deciding if the program should be a web app, a flutter-based mobile app, or something else. But nothing was as effective as combining a signup page and an email system, instead of a full-scale app.
-## Features for the future of the Guilty Project
-Features for the future of the Guilty Project</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>## Features for the future of the Guilty Project
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Challenges faced in the Guilty Project:
+Finding a suitable library to connect to the user's bank data was difficult as it needed to be both simple and cost-effective for an open-source free-to-use project. Among many other options (ex: Plaid, TrueLayer) Nordigen was the the best fit in these categories.
+With the same metrics of simplicity and cost-effectiveness in mind, I wanted an easy low-code/no-code front-end solution to showcase the web app. Unlike most options (bubble io, flutter, javascript), streamlit was the best simple and free solution I had.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>There was also a struggle with deciding if the program should be a web app, a flutter-based mobile app, or something else. But nothing was as effective as combining a signup page and an email system, instead of a full-scale app.
 Features for the future of the Guilty Project
 Display all transactions and select transactions that are not part of the budget to exclude them from all calculations
-AI-generated memes/jokes in the email to motivate the user into spending less (ex: A roasting joke on the state of their bank account)
+AI-generated memes/jokes in the email to motivate the user into spending less (ex: A roasting joke on the state of their bank account)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AI-generated memes/jokes in the email to motivate the user into spending less (ex: A roasting joke on the state of their bank account)
 Offer discounts and deals from famous vendors to satisfy cravings and help reduce spending</t>
         </is>
       </c>

--- a/eval_utils/corpus.xlsx
+++ b/eval_utils/corpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,100 +443,83 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Personal Details
+          <t># Personal details
+Personal Details
 Name: Surya Govindasamy Ganesan
 Who is Surya Ganesan
 Business student with experience building AI applications for business use cases seeking a role as an AI developer.
+#
 Contact details
 Email: suryaganesan925@gmail.com
 LinkedIn profile: https://www.linkedin.com/in/surya-govindasamy-ganesan/
 Portfolio link: https://suryaganesan.notion.site/Surya-G-Ganesan-Aspiring-AI-Dev-a57f7488be034d18822e3b3b412ed102
 Phone number: +44 7436962389
-Education
-Studying BA Business Management  at the University of Leeds between 2021 – 2025 (present)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Phone number: +44 7436962389
+# Education
 Education
 Studying BA Business Management  at the University of Leeds between 2021 – 2025 (present)
 Relevant modules I studied: Business Analytics, Economics &amp; Finance, Management Research &amp; analysis.
+I built Projects around the following topics during my university:</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Relevant modules I studied: Business Analytics, Economics &amp; Finance, Management Research &amp; analysis.
 I built Projects around the following topics during my university:
 Pregnancy predictor: Produced a 2500-word data analytics report that analyses the purchasing history of 1000 customers to identify chances of pregnancy in their households.
-Product discovery: Researched user problems and literature reviews to validate a product idea</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Product discovery: Researched user problems and literature reviews to validate a product idea
+Product discovery: Researched user problems and literature reviews to validate a product idea
 Studied at The Indian Public School for high school education in India (Erode) between 2017 - 2021
 Relevant Subjects I studied: Computer Science, Mathematics, Physics
 Final scores in high school: 95%
+# Professional experience with SAP
 Professional Experiences
 Working as a Business Analyst intern at SAP from July 2023 to July 2024 (present)
 What I’m doing at SAP:
-Creating performance dashboards for different teams in the organisation
-Conducting business analysis to identify reasons behind deal slippage in the organisation</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>What I’m doing at SAP:
+Creating performance dashboards for different teams in the organisation</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Professional Experiences
+Working as a Business Analyst intern at SAP from July 2023 to July 2024 (present)
+What I’m doing at SAP:
 Creating performance dashboards for different teams in the organisation
 Conducting business analysis to identify reasons behind deal slippage in the organisation
 Conducting strategic research on client companies to identify pain points and position SAP products
+# President at Enactus Leeds
 Worked as President at Enactus Leeds from Jun 2022 – June 2023 (12 months)
 What I did at Enactus:
-Lead a 11 people team that runs 3 social enterprise projects to impact the local community.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Worked as President at Enactus Leeds from Jun 2022 – June 2023 (12 months)
-What I did at Enactus:
 Lead a 11 people team that runs 3 social enterprise projects to impact the local community.
+Delegate and assign tasks to ensure productivity and efficient time management by using digital systems (Fantastical and Notion).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Lead a 11 people team that runs 3 social enterprise projects to impact the local community.
 Delegate and assign tasks to ensure productivity and efficient time management by using digital systems (Fantastical and Notion).
 Evaluate project proposals against the Lean product development concept. Set and prioritize tasks to achieve meaningful goals by defining purpose of the projects.
-Grew student base over 150% compared to last year in a period of 8 months (from 37 to 198 members)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Grew student base over 150% compared to last year in a period of 8 months (from 37 to 198 members)
+Grew student base over 150% compared to last year in a period of 8 months (from 37 to 198 members)
+# Work in the Guilty Project
 Worked at Guilty as  project founder from December 2022 – July 2023 (8 months)
 What I did at the Guilty Project
 Identify business problem through primary &amp; secondary research and validate start up idea through lean product development strategy by developing an MVP (Minimum Viable Product).
-Developing JSON based backend with Python and cross platform front-end in Flutter.
-Conducted competitor analysis and market segmentation to identify ideal customer profile of users.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+Developing JSON based backend with Python and cross platform front-end in Flutter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Developing JSON based backend with Python and cross platform front-end in Flutter.
 Conducted competitor analysis and market segmentation to identify ideal customer profile of users.
 Identified 70% of survey participants relayed back to their rough mental budget before making financial decisions.
+# Accomplishments and other information
 Accomplishments and Miscellaneous
-Supported to define the purpose and operation plan of two social enterprises as project consultant – Hear Her Out and The Power-Em Project.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Accomplishments and Miscellaneous
 Supported to define the purpose and operation plan of two social enterprises as project consultant – Hear Her Out and The Power-Em Project.
 Published an article on ‘How to fail a start-up’ that advises on how to deal with fear of failure as a start-up entrepreneur.
 Extra-curricular
@@ -545,230 +528,190 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Published an article on ‘How to fail a start-up’ that advises on how to deal with fear of failure as a start-up entrepreneur.
+Extra-curricular
+    Writing • Boxing  •   Swimming  •   Table Tennis  •
+Additional context
+Personal Summary: I am Surya Govindasamy Ganesan, an international student from India who studies BA Business management at the university of Leeds. I moved to the UK in 2021 to pursue my degree in business. After finishing the second year of my degree, I landed a placement programme with SAP where I work for one year in different departments to gather more experience. After finishing my one year placement programme that goes from 1st July 2023 to 31st July 2024, I will go back to university to finish the final year of my degree between September 2024 and June 2025.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Currently I am working at SAP in different departments doing a variety of work including business analysis in the programs office (creating business reports on performance and productivity), Value advisory as part of the Industry Value advisory organisation (Advising SAP customers on the business value of investing in SAP software like S/4HANA Cloud), and as an associate AI engineer in Singapore’s AI use cases team (Learning to build and evaluate RAG bots).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Education and projects - Skills developed during the period: I did my high school education in India at the Indian public school where I chose Maths, Physics and Computer Science as my primary subjects. I graduated from high school with an overall 95%. During my first year at university I did a business analytics module where I learnt the maths behind building different predictive models like linear regression and logistic regression. I built skills in analysing datasets and building predictive models with excel. 
+At the end of the first year I also managed land a part time role at an international money transfer startup called “Easy Transfer” holding a marketing role in conducting marketing campaigns with the student community and explaining the service to first time customers.</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Personal Summary: I am Surya Govindasamy Ganesan, an international student from India who studies BA Business management at the university of Leeds. I moved to the UK in 2021 to pursue my degree in business. After finishing the second year of my degree, I landed a placement programme with SAP where I work for one year in different departments to gather more experience. After finishing my one year placement programme that goes from 1st July 2023 to 31st July 2024, I will go back to university to finish the final year of my degree between September 2024 and June 2025.</t>
+          <t>During my second year of university I ran a student society for social entrepreneurs. I led a team of 9 people that helped me conduct several events with an average footfall of 50+ students. This experience helped me develop my skills in collaboration, leadership and planning and executing a strategy. 
+In the second half of my second year at university I decided to build a budgeting app for minimalist students who want to control their impulse spending behaviours. It was called “the guilty project”. I finished building the app after interviewing several students who had trouble managing their finances, and I built the app with flutter for the front end and python with flask for the backend. During this time I taught myself how to build apps with Flutter and Python servers, and also learnt to host a server on the cloud.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Currently I am working at SAP in different departments doing a variety of work including business analysis in the programs office (creating business reports on performance and productivity), Value advisory as part of the Industry Value advisory organisation (Advising SAP customers on the business value of investing in SAP software like S/4HANA Cloud), and as an associate AI engineer in Singapore’s AI use cases team (Learning to build and evaluate RAG bots).</t>
+          <t>Placement program with SAP: Currently during the year of my placement program, I am working in three different departments from time to time – Value Advisory, Reporting and Enablement, and AI engineering. 
+In the first four months of my placement I developed my skills in value selling and learnt about the B2B software space. by helping create value pitch decks for SAP’s cloud ERP products like SAP S/4HANA, Digital Supply Chain and Customer Experience products. A huge part of my role there was to create a business case for investing in SAP products by collecting customer’s operational data, identify the customer’s key value drivers and calculate expected benefit ranges for the customer in a specific industry in terms of potential new revenue generated, cost cut down and increase in sustainability.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Education and projects - Skills developed during the period: I did my high school education in India at the Indian public school where I chose Maths, Physics and Computer Science as my primary subjects. I graduated from high school with an overall 95%. During my first year at university I did a business analytics module where I learnt the maths behind building different predictive models like linear regression and logistic regression. I built skills in analysing datasets and building predictive models with excel.</t>
+          <t>In the second four months of my placement, I was working as an associate business analyst for the UKI Value advisory department. This meant that I created end of quarter and end of year performance reports using excel and SAP’s SAC database (SAP Analytics cloud database), highlighting trends that occurred in the period, tracking targets and analysing anomalies. I worked with tools like PowerBI, excel and SAC cloud to source data, clean them, interpret data and visualise results.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>At the end of the first year I also managed land a part time role at an international money transfer startup called “Easy Transfer” holding a marketing role in conducting marketing campaigns with the student community and explaining the service to first time customers.
-During my second year of university I ran a student society for social entrepreneurs. I led a team of 9 people that helped me conduct several events with an average footfall of 50+ students. This experience helped me develop my skills in collaboration, leadership and planning and executing a strategy.</t>
+          <t>During the last five months of my placement program, between March 2024 and July 2024 I am working as an associate GenAI engineer shadowing an experienced colleague from the field where I am learning about building RAG chatbots in python and the langchain framework using open source tools, evaluating and improving their performance using the phoenix framework to evaluate their reliability, relevancy and hallucination metrics. 
+During the first four months of placement period I was self learning the basic’s of artificial intelligence by taking CS50’s Introduction to machine learning course where I learnt different AI algorithms that were being used before machine learning became popular like Depth first search, Best-First search, KNN algorithms.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>In the second half of my second year at university I decided to build a budgeting app for minimalist students who want to control their impulse spending behaviours. It was called “the guilty project”. I finished building the app after interviewing several students who had trouble managing their finances, and I built the app with flutter for the front end and python with flask for the backend. During this time I taught myself how to build apps with Flutter and Python servers, and also learnt to host a server on the cloud.</t>
+          <t>During the second four months of the placement period, I self-taught myself machine learning in python where I learnt about the different machine learning concepts used to make predictions like Decision trees, Linear regression, Random Forests and Gradient Boosting techniques. I put these concepts into practise by building a “sales deal success predictor” project that relied on CRM data downloaded from SAC so that members of the value advisory department can prioritise which deals to support first based on how likely they are to close.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Placement program with SAP: Currently during the year of my placement program, I am working in three different departments from time to time – Value Advisory, Reporting and Enablement, and AI engineering.</t>
+          <t>To build the sales deal predictor project I created a dataset that had information about a 100 sales deals classified as successful or lost, which included relevant variables in predicting success of a deal that were chosen based on the personal experience of my colleagues. After dividing them into training and test dataset, I tested different predictive models to predict the success of deals with cross validation in scikit-learn and identified that Random forests had the highest accuracy in predicting deal success. After tuning hyper-parameters like max depth and number of decision trees, I arrived at a model accuracy of 65%. Through experience my colleagues identified that even SAP’s internal deal prioritiser that is based on similar data sources can only offer such level of accuracy. Hence I was able to replicate the deal success predictor that we used within the company and was a</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>In the first four months of my placement I developed my skills in value selling and learnt about the B2B software space. by helping create value pitch decks for SAP’s cloud ERP products like SAP S/4HANA, Digital Supply Chain and Customer Experience products. A huge part of my role there was to create a business case for investing in SAP products by collecting customer’s operational data, identify the customer’s key value drivers and calculate expected benefit ranges for the customer in a specific industry in terms of potential new revenue generated, cost cut down and increase in</t>
+          <t>that even SAP’s internal deal prioritiser that is based on similar data sources can only offer such level of accuracy. Hence I was able to replicate the deal success predictor that we used within the company and was a fun experience where I learned about the basics of machine learning.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>identify the customer’s key value drivers and calculate expected benefit ranges for the customer in a specific industry in terms of potential new revenue generated, cost cut down and increase in sustainability.</t>
+          <t>During the last five months of the placement period, I also self-taught myself about building deep learning models with pytorch outside of my work hours to understand the math and logic behind modern Generative AI technology. I’ve learnt about the basics of pytroch, training a simple neural network, building a convolutional neural network, using residual blocks, weight decay and learning rate scheduling to improve performance, training a neural network on GPU, the ResNet9 architecture for image classification and hyper-paramater tuning to build, train and improve the performance of a neural network while tackling the vanishing gradient problem.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>In the second four months of my placement, I was working as an associate business analyst for the UKI Value advisory department. This meant that I created end of quarter and end of year performance reports using excel and SAP’s SAC database (SAP Analytics cloud database), highlighting trends that occurred in the period, tracking targets and analysing anomalies. I worked with tools like PowerBI, excel and SAC cloud to source data, clean them, interpret data and visualise results.</t>
+          <t>Skills I’ve developed for being an AI engineer: During high school and university I’ve developed my python programming skills by buildings apps, servers and other side projects. During my placement program with SAP I developed my skills in machine learning and deep learning by learning to build different types of predictive models including neural networks. Working as a business analyst has allowed me to learn about data transformation, data cleaning and presenting technical information. While working as an associate GenAI engineer, I’ve learnt to build agent chains using the langchain framework in python and trace and evaluate RAG bots using the phoenix framework in python. I’ve developed all of the mentioned skills to become a high performing AI engineer. Out of all the projects I have worked on, the RAG chatbot that I built to answer questions about my CV is by far the most</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>During the last five months of my placement program, between March 2024 and July 2024 I am working as an associate GenAI engineer shadowing an experienced colleague from the field where I am learning about building RAG chatbots in python and the langchain framework using open source tools, evaluating and improving their performance using the phoenix framework to evaluate their reliability, relevancy and hallucination metrics.</t>
+          <t>in python. I’ve developed all of the mentioned skills to become a high performing AI engineer. Out of all the projects I have worked on, the RAG chatbot that I built to answer questions about my CV is by far the most interesting for me.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>During the first four months of placement period I was self learning the basic’s of artificial intelligence by taking CS50’s Introduction to machine learning course where I learnt different AI algorithms that were being used before machine learning became popular like Depth first search, Best-First search, KNN algorithms.</t>
+          <t>Job role expectations: I want to work on a role like AI engineer or ML developer or GenAI engineer, where I get to work on interesting new ideas. I want work in a role that revolves around either building applications with large language models or other Generative technologies or training and fine tuning LLMs for specific use cases. I am looking for a minimum salary of £35k pounds, preferably in London.
+Skills that I’m trying to develop: I am trying to develop my skills in learning to use Knowledge graphs in my langchain applications, learn to build multimodal retrieval applications and also learn to build and train transformer models to understand the basic technology that generative AI is dependant on.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>During the second four months of the placement period, I self-taught myself machine learning in python where I learnt about the different machine learning concepts used to make predictions like Decision trees, Linear regression, Random Forests and Gradient Boosting techniques. I put these concepts into practise by building a “sales deal success predictor” project that relied on CRM data downloaded from SAC so that members of the value advisory department can prioritise which deals to support first based on how likely they are to close.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>To build the sales deal predictor project I created a dataset that had information about a 100 sales deals classified as successful or lost, which included relevant variables in predicting success of a deal that were chosen based on the personal experience of my colleagues. After dividing them into training and test dataset, I tested different predictive models to predict the success of deals with cross validation in scikit-learn and identified that Random forests had the highest accuracy in predicting deal success. After tuning hyper-parameters like max depth and number of decision trees, I</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>cross validation in scikit-learn and identified that Random forests had the highest accuracy in predicting deal success. After tuning hyper-parameters like max depth and number of decision trees, I arrived at a model accuracy of 65%. Through experience my colleagues identified that even SAP’s internal deal prioritiser that is based on similar data sources can only offer such level of accuracy. Hence I was able to replicate the deal success predictor that we used within the company and was a fun experience where I learned about the basics of machine learning.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>During the last five months of the placement period, I also self-taught myself about building deep learning models with pytorch outside of my work hours to understand the math and logic behind modern Generative AI technology. I’ve learnt about the basics of pytroch, training a simple neural network, building a convolutional neural network, using residual blocks, weight decay and learning rate scheduling to improve performance, training a neural network on GPU, the ResNet9 architecture for image classification and hyper-paramater tuning to build, train and improve the performance of a neural</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>to improve performance, training a neural network on GPU, the ResNet9 architecture for image classification and hyper-paramater tuning to build, train and improve the performance of a neural network while tackling the vanishing gradient problem.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Skills I’ve developed for being an AI engineer: During high school and university I’ve developed my python programming skills by buildings apps, servers and other side projects. During my placement program with SAP I developed my skills in machine learning and deep learning by learning to build different types of predictive models including neural networks. Working as a business analyst has allowed me to learn about data transformation, data cleaning and presenting technical information. While working as an associate GenAI engineer, I’ve learnt to build agent chains using the langchain</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>allowed me to learn about data transformation, data cleaning and presenting technical information. While working as an associate GenAI engineer, I’ve learnt to build agent chains using the langchain framework in python and trace and evaluate RAG bots using the phoenix framework in python. I’ve developed all of the mentioned skills to become a high performing AI engineer. Out of all the projects I have worked on, the RAG chatbot that I built to answer questions about my CV is by far the most interesting for me.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Job role expectations: I want to work on a role like AI engineer or ML developer or GenAI engineer, where I get to work on interesting new ideas. I want work in a role that revolves around either building applications with large language models or other Generative technologies or training and fine tuning LLMs for specific use cases. I am looking for a minimum salary of £35k pounds, preferably in London.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Skills that I’m trying to develop: I am trying to develop my skills in learning to use Knowledge graphs in my langchain applications, learn to build multimodal retrieval applications and also learn to build and train transformer models to understand the basic technology that generative AI is dependant on.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
           <t>What I am doing currently: My name is Surya Govindasamy Ganesan. I am currently both a student and in full time work. I’m studying at the university of leeds and graduating in June 2025 with Bachelor of arts in Business management. As part of my course, I am currently doing a placement program with SAP as part of my degree. So, while I am working at SAP full time as an employee, I am also a student.
+# Personal Summary
 Surya Govindasamy Ganesan: Aspiring AI Dev
 Hi! I’m Surya and I’m a Business Analyst
-I’m a self taught programmer interested in AI development, currently working as a business analyst.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Hi! I’m Surya and I’m a Business Analyst
 I’m a self taught programmer interested in AI development, currently working as a business analyst.
 I help business users capitalise on their data resources.
-📭 Contact Details
+# Contact Details
 ---
 Send me an email: suryaganesan925@gmail.com
 DM me on LinkedIn: [@suryagganesan](http://www.linkedin.com/in/suryagganesan)
 Github profile: [@cod-ux](https://github.com/cod-ux)
-Project Portfolio
-Completed Projects
-1. Pregnancy Predictor (University)</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Github profile: [@cod-ux](https://github.com/cod-ux)
-Project Portfolio
+# Project Portfolio</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t># Contact Details
+---
+Send me an email: suryaganesan925@gmail.com
+DM me on LinkedIn: [@suryagganesan](http://www.linkedin.com/in/suryagganesan)
+Github profile: [@cod-ux](https://github.com/cod-ux)
+# Project Portfolio
 Completed Projects
 1. Pregnancy Predictor (University)
 Project description: Built a model that correctly predicts pregnancies in households based on a given data set of customer’s purchase history from a local store.
 Methodology:
 Identified and filtered features with high predictive power through a *Chi-Squared* test all of which were categorical.
-Built the predictive tool with *logistic regression* since the output variable was binary categorical.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Built the predictive tool with *logistic regression* since the output variable was binary categorical.
+Built the predictive tool with *logistic regression* since the output variable was binary categorical.
 Chose the optimal cut-off value at the *pregnancy probability* with the least error rate.
 Results:
 The optimal cut-off value for *pregnancy probability* was at 50%.
+# Minimalist’s budgeting app</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chose the optimal cut-off value at the *pregnancy probability* with the least error rate.
+Results:
+The optimal cut-off value for *pregnancy probability* was at 50%.
+# Minimalist’s budgeting app
 2. A Minimalist’s Budgeting app
 Project description: A budgeting dashboard built for mobile with Flutter for the frontend and Python (Flask) for the backend.
 Key Features
-Suggests and tracks the daily budget of the user based on budgeting goals</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Key Features
 Suggests and tracks the daily budget of the user based on budgeting goals
 Teases the user with positive &amp; negative memes based on the user’s budget health
 Forecasts and predicts the runway of the user’s allocated budget for the month
 Result
+Worked with startup mentors from the *[Who’s Fabio?*](https://www.whosfabio.com) community to identify a value proposition and launch for the student community.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Result
 Worked with startup mentors from the *[Who’s Fabio?*](https://www.whosfabio.com) community to identify a value proposition and launch for the student community.
-Quote from startup mentor: *“You’ve done a really good job identifying struggles that we’ve noticed the in the market as well and building a value proposition”*</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Quote from startup mentor: *“You’ve done a really good job identifying struggles that we’ve noticed the in the market as well and building a value proposition”*
+Quote from startup mentor: *“You’ve done a really good job identifying struggles that we’ve noticed the in the market as well and building a value proposition”*
 Github repositories for the Guilty project:
 Flutter frontend: [https://github.com/cod-ux/guiltyv4.git](https://github.com/cod-ux/guiltyv4.git)
 Python server code: [https://github.com/cod-ux/server.git](https://github.com/cod-ux/server.git)
+# Deal Success Predictor Project
 Ongoing Projects
 3. Deal Success Predictor (SAP)
-Project description: A python based *Scikit-learn* model that predicted if a sales deal would close within the next quarter or not.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+Project description: A python based *Scikit-learn* model that predicted if a sales deal would close within the next quarter or not.
+Methodology:</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Ongoing Projects
 3. Deal Success Predictor (SAP)
@@ -777,29 +720,21 @@
 Created a data set of 100 deals with 22 features, half of the deals won within one quarter of engagement and the other half stagnant or lost.
 Conduct exploratory data analysis and hypothesis testing with *Scipy* and *pandas* to filter significant features
 Built and train a *Random Forests* model to predict deals that will are likely to close within a quarter
-Initial results &amp; Challenges:</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Built and train a *Random Forests* model to predict deals that will are likely to close within a quarter
 Initial results &amp; Challenges:
+With initial results, model shows an accuracy of 75% with labelled test data.
+Model is being tested to use for prioritising deals to support by a support team in the enterprise</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Initial results &amp; Challenges:
 With initial results, model shows an accuracy of 75% with labelled test data.
 Model is being tested to use for prioritising deals to support by a support team in the enterprise
 When used with new unlabelled data, model wrongly predicted stagnant deals to be good deals according to subject matter experts.
 Note: The data used for this project belongs to the employer and is hence confidential
-FAQs
-**About me**
-What programming languages do I know?</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Note: The data used for this project belongs to the employer and is hence confidential
+# FAQs
 FAQs
 **About me**
 What programming languages do I know?
@@ -825,100 +760,82 @@
 - pandas, numpy
 - sklearn
 - Fastai
-#
-How many years of professional experience do I have?</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>- Presentation Skills
+# Professional work experience</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>- Executive communication
+- Market Research
+- Presentation Skills
 - Content Writing
 What are some python frameworks I am familiar with?
 - Flask
 - pandas, numpy
 - sklearn
 - Fastai
-#
+# Professional work experience
 How many years of professional experience do I have?
 - Marketing Co-ordinator at a Fintech Startup (6 months)
 - Value Advisor at SAP (13 months)
     (Business student at Leeds, graduating Sept 2025)
-The Guilty Project</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>- Marketing Co-ordinator at a Fintech Startup (6 months)
-- Value Advisor at SAP (13 months)
-    (Business student at Leeds, graduating Sept 2025)
-The Guilty Project
+# The Guilty Project
 A Python app that makes a daily forecast on how much the user is expected to spend that month based on their spending so far and sends an email notification to the user if the forecasted amount is more than their budget saying they should spend only 'x' amount today if they want to get back on track with their budget. 
-The app is made with streamlit, firebase and the nordigen (Gocardless) API.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+The app is made with streamlit, firebase and the nordigen (Gocardless) API.
+#  How the Guilty project app works</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>The app is made with streamlit, firebase and the nordigen (Gocardless) API.
-How the Guilty project app works
-The app is designed as a web application and is made with streamlit due to its simple and easy nature. Users can sign up for the app by providing info on their budget, email address and connecting their bank account to track and receive emails when their forecasted spending for the month exceeds their budget, along with how much they should spend that day to get back on track with spending under budget.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+#  How the Guilty project app works
+The app is designed as a web application and is made with streamlit due to its simple and easy nature. Users can sign up for the app by providing info on their budget, email address and connecting their bank account to track and receive emails when their forecasted spending for the month exceeds their budget, along with how much they should spend that day to get back on track with spending under budget. 
+The app uses nordigen (GoCardless) to connect to the users' bank accounts, and store authentication tokens and user info during the onboarding process in firebase.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>The app uses nordigen (GoCardless) to connect to the users' bank accounts, and store authentication tokens and user info during the onboarding process in firebase.
-Once signed up, the user will receive an onboarding email giving instructions on how the forecasting is calculated when they will typically receive emails and the conetents of the email (such as expected monthly spend, how much to spend that day to get back on track, and what to do if they have unavoidable incoming expenses)</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Users can log in to the web app after signing up to change their settings, such as - email, username, budget amount, pay date, etc...
-The Forecasting process
+Once signed up, the user will receive an onboarding email giving instructions on how the forecasting is calculated when they will typically receive emails and the conetents of the email (such as expected monthly spend, how much to spend that day to get back on track, and what to do if they have unavoidable incoming expenses)
+Users can log in to the web app after signing up to change their settings, such as - email, username, budget amount, pay date, etc...
+# The Forecasting process
 The amount of money spent in the last 7 days divided by 7 provides the **average spending rate**, which is multiplied by the days remaining in the budget month to forecast the money spent that month.</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>When calculating the total money spent in a time period, if 'x' pounds are spent from the bank account and 'x' pounds are sent to the bank account, then it is considered as no money spent. This is to take into account friends splitting bills, and paying back any previous expenses
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>The amount of money spent in the last 7 days divided by 7 provides the **average spending rate**, which is multiplied by the days remaining in the budget month to forecast the money spent that month.
+When calculating the total money spent in a time period, if 'x' pounds are spent from the bank account and 'x' pounds are sent to the bank account, then it is considered as no money spent. This is to take into account friends splitting bills, and paying back any previous expenses
 No transaction with a value above 15% of the total budget is taken into account when calculating total money spent, as usually these are miscellaneous transactions that are not part of the monthly budgets (like tuition expenses, rent, etc...)
-Challenges faced in the Guilty Project:</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Challenges faced in the Guilty Project:
+# Challenges faced in the Guilty Project:</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t># Challenges faced in the Guilty Project:
 Finding a suitable library to connect to the user's bank data was difficult as it needed to be both simple and cost-effective for an open-source free-to-use project. Among many other options (ex: Plaid, TrueLayer) Nordigen was the the best fit in these categories.
-With the same metrics of simplicity and cost-effectiveness in mind, I wanted an easy low-code/no-code front-end solution to showcase the web app. Unlike most options (bubble io, flutter, javascript), streamlit was the best simple and free solution I had.</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>There was also a struggle with deciding if the program should be a web app, a flutter-based mobile app, or something else. But nothing was as effective as combining a signup page and an email system, instead of a full-scale app.
-Features for the future of the Guilty Project
+With the same metrics of simplicity and cost-effectiveness in mind, I wanted an easy low-code/no-code front-end solution to showcase the web app. Unlike most options (bubble io, flutter, javascript), streamlit was the best simple and free solution I had.
+There was also a struggle with deciding if the program should be a web app, a flutter-based mobile app, or something else. But nothing was as effective as combining a signup page and an email system, instead of a full-scale app.
+# Features for the future of the Guilty Project</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t># Features for the future of the Guilty Project
 Display all transactions and select transactions that are not part of the budget to exclude them from all calculations
-AI-generated memes/jokes in the email to motivate the user into spending less (ex: A roasting joke on the state of their bank account)</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>AI-generated memes/jokes in the email to motivate the user into spending less (ex: A roasting joke on the state of their bank account)
+AI-generated memes/jokes in the email to motivate the user into spending less (ex: A roasting joke on the state of their bank account)
 Offer discounts and deals from famous vendors to satisfy cravings and help reduce spending</t>
         </is>
       </c>

--- a/eval_utils/corpus.xlsx
+++ b/eval_utils/corpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
 Personal Details
 Name: Surya Govindasamy Ganesan
 Who is Surya Ganesan
-Business student with experience building AI applications for business use cases seeking a role as an AI developer.
+Surya Ganesan is currently studying BA Business management at the University of Leeds till June 2025. Business student with experience building AI applications for business use cases seeking a role as an AI developer.
 #
 Contact details
 Email: suryaganesan925@gmail.com
@@ -474,7 +474,7 @@
 Final scores in high school: 95%
 # Professional experience with SAP
 Professional Experiences
-Working as a Business Analyst intern at SAP from July 2023 to July 2024 (present)
+Working as an intern at SAP from July 2023 to July 2024 (present)
 What I’m doing at SAP:
 Creating performance dashboards for different teams in the organisation</t>
         </is>
@@ -484,7 +484,7 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Professional Experiences
-Working as a Business Analyst intern at SAP from July 2023 to July 2024 (present)
+Working as an intern at SAP from July 2023 to July 2024 (present)
 What I’m doing at SAP:
 Creating performance dashboards for different teams in the organisation
 Conducting business analysis to identify reasons behind deal slippage in the organisation
@@ -504,27 +504,27 @@
 Delegate and assign tasks to ensure productivity and efficient time management by using digital systems (Fantastical and Notion).
 Evaluate project proposals against the Lean product development concept. Set and prioritize tasks to achieve meaningful goals by defining purpose of the projects.
 Grew student base over 150% compared to last year in a period of 8 months (from 37 to 198 members)
-# Work in the Guilty Project
+# 
 Worked at Guilty as  project founder from December 2022 – July 2023 (8 months)
-What I did at the Guilty Project
-Identify business problem through primary &amp; secondary research and validate start up idea through lean product development strategy by developing an MVP (Minimum Viable Product).
-Developing JSON based backend with Python and cross platform front-end in Flutter.</t>
+What is the Guilty project
+The Guilty project is a budgeting app for minimalist students who want to control their impulse spending behaviour. It was founded by Surya during the second year of his university. The app is developed with Flutter for the frontend and Python for the backend.
+What I did at the Guilty Project</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Developing JSON based backend with Python and cross platform front-end in Flutter.
+          <t>What I did at the Guilty Project
+Identify business problem through primary &amp; secondary research and validate start up idea through lean product development strategy by developing an MVP (Minimum Viable Product).
+Developing JSON based backend with Python and cross platform front-end in Flutter.
 Conducted competitor analysis and market segmentation to identify ideal customer profile of users.
 Identified 70% of survey participants relayed back to their rough mental budget before making financial decisions.
 # Accomplishments and other information
 Accomplishments and Miscellaneous
 Supported to define the purpose and operation plan of two social enterprises as project consultant – Hear Her Out and The Power-Em Project.
 Published an article on ‘How to fail a start-up’ that advises on how to deal with fear of failure as a start-up entrepreneur.
-Extra-curricular
-    Writing • Boxing  •   Swimming  •   Table Tennis  •
-Additional context</t>
+Extra-curricular</t>
         </is>
       </c>
     </row>
@@ -535,110 +535,128 @@
 Extra-curricular
     Writing • Boxing  •   Swimming  •   Table Tennis  •
 Additional context
-Personal Summary: I am Surya Govindasamy Ganesan, an international student from India who studies BA Business management at the university of Leeds. I moved to the UK in 2021 to pursue my degree in business. After finishing the second year of my degree, I landed a placement programme with SAP where I work for one year in different departments to gather more experience. After finishing my one year placement programme that goes from 1st July 2023 to 31st July 2024, I will go back to university to finish the final year of my degree between September 2024 and June 2025.</t>
+Personal details: Surya’s full name is Surya Govindasamy Ganesan. He is a 20 year old male born in India who moved to the UK roughly three years ago. He lives in London and his full name is Surya Govindasamy Ganesan.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Currently I am working at SAP in different departments doing a variety of work including business analysis in the programs office (creating business reports on performance and productivity), Value advisory as part of the Industry Value advisory organisation (Advising SAP customers on the business value of investing in SAP software like S/4HANA Cloud), and as an associate AI engineer in Singapore’s AI use cases team (Learning to build and evaluate RAG bots).</t>
+          <t>Personal details: Surya’s full name is Surya Govindasamy Ganesan. He is a 20 year old male born in India who moved to the UK roughly three years ago. He lives in London and his full name is Surya Govindasamy Ganesan.
+Personal Summary: Surya Govindasamy Ganesan is an international student from India who studies BA Business management at the university of Leeds till June 2025. he moved to the UK in 2021 to pursue his degree in business. After finishing the second year of his degree, he landed a placement programme with SAP where he is working for one year in different departments to gather more experience. After finishing his one year placement programme that goes from 1st July 2023 to 31st July 2024, he will go back to university to finish the final year of his degree between September 2024 and June 2025.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Education and projects - Skills developed during the period: I did my high school education in India at the Indian public school where I chose Maths, Physics and Computer Science as my primary subjects. I graduated from high school with an overall 95%. During my first year at university I did a business analytics module where I learnt the maths behind building different predictive models like linear regression and logistic regression. I built skills in analysing datasets and building predictive models with excel. 
-At the end of the first year I also managed land a part time role at an international money transfer startup called “Easy Transfer” holding a marketing role in conducting marketing campaigns with the student community and explaining the service to first time customers.</t>
+          <t>Currently he is working at SAP as an intern as part of their placement program. He is working in different departments doing a variety of work including business analysis in the programs office (creating business reports on performance and productivity), Value advisory as part of the Industry Value advisory organisation (Advising SAP customers on the business value of investing in SAP software like S/4HANA Cloud), and as an associate AI engineer in Singapore’s AI use cases team (Learning to build and evaluate RAG bots).
+Education and projects: 
+Surya is currently studying at the University of Leeds studying BA Business management till June 2025. he did his high school education in India at the Indian public school where he chose Maths, Physics and Computer Science as his primary subjects.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>During my second year of university I ran a student society for social entrepreneurs. I led a team of 9 people that helped me conduct several events with an average footfall of 50+ students. This experience helped me develop my skills in collaboration, leadership and planning and executing a strategy. 
-In the second half of my second year at university I decided to build a budgeting app for minimalist students who want to control their impulse spending behaviours. It was called “the guilty project”. I finished building the app after interviewing several students who had trouble managing their finances, and I built the app with flutter for the front end and python with flask for the backend. During this time I taught myself how to build apps with Flutter and Python servers, and also learnt to host a server on the cloud.</t>
+          <t>Surya graduated from high school with an overall 95%. he has a strong foundation in math as he has been studying math from high school and has also further developed these skills on his pursuit to being an AI engineer. he have studied maths in high school and have also delved into the math behind building predictive models like linear regression and logistic regression during their university studies. Hence, he have a strong foundation in mathematics that will help me excel as an AI engineer. 
+During his first year at university, Surya did a business analytics module where he learnt the maths behind building different predictive models like linear regression and logistic regression. he built skills in analysing datasets and building predictive models with excel.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Placement program with SAP: Currently during the year of my placement program, I am working in three different departments from time to time – Value Advisory, Reporting and Enablement, and AI engineering. 
-In the first four months of my placement I developed my skills in value selling and learnt about the B2B software space. by helping create value pitch decks for SAP’s cloud ERP products like SAP S/4HANA, Digital Supply Chain and Customer Experience products. A huge part of my role there was to create a business case for investing in SAP products by collecting customer’s operational data, identify the customer’s key value drivers and calculate expected benefit ranges for the customer in a specific industry in terms of potential new revenue generated, cost cut down and increase in sustainability.</t>
+          <t>At the end of the first year he also managed land a part time role at an international money transfer startup called “Easy Transfer” holding a marketing role in conducting marketing campaigns with the student community and explaining the service to first time customers.
+During his second year of university Surya ran a student society for social entrepreneurs. he led a team of 9 people that helped me conduct several events with an average footfall of 50+ students. This experience helped me develop his skills in collaboration, leadership and planning and executing a strategy.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>In the second four months of my placement, I was working as an associate business analyst for the UKI Value advisory department. This meant that I created end of quarter and end of year performance reports using excel and SAP’s SAC database (SAP Analytics cloud database), highlighting trends that occurred in the period, tracking targets and analysing anomalies. I worked with tools like PowerBI, excel and SAC cloud to source data, clean them, interpret data and visualise results.</t>
+          <t>In the second half of his second year at university, Surya decided to build a budgeting app for minimalist students who want to control their impulse spending behaviours. It was called “the guilty project”. he finished building the app after interviewing several students who had trouble managing their finances, and he built the app with flutter for the front end and python with flask for the backend. During this time he taught himself how to build apps with Flutter and Python servers, and also learnt to host a server on the cloud.
+Placement program with SAP: Currently during the year of his placement program, Surya is working at SAP in three different departments from time to time – Value Advisory, Reporting and Enablement, and AI engineering.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>During the last five months of my placement program, between March 2024 and July 2024 I am working as an associate GenAI engineer shadowing an experienced colleague from the field where I am learning about building RAG chatbots in python and the langchain framework using open source tools, evaluating and improving their performance using the phoenix framework to evaluate their reliability, relevancy and hallucination metrics. 
-During the first four months of placement period I was self learning the basic’s of artificial intelligence by taking CS50’s Introduction to machine learning course where I learnt different AI algorithms that were being used before machine learning became popular like Depth first search, Best-First search, KNN algorithms.</t>
+          <t>Placement program with SAP: Currently during the year of his placement program, Surya is working at SAP in three different departments from time to time – Value Advisory, Reporting and Enablement, and AI engineering. 
+In the first four months of his placement Surya developed his skills in value selling and learnt about the B2B software space. by helping create value pitch decks for SAP’s cloud ERP products like SAP S/4HANA, Digital Supply Chain and Customer Experience products. A huge part of his role there was to create a business case for investing in SAP products by collecting customer’s operational data, identify the customer’s key value drivers and calculate expected benefit ranges for the customer in a specific industry in terms of potential new revenue generated, cost cut down and increase in sustainability.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>During the second four months of the placement period, I self-taught myself machine learning in python where I learnt about the different machine learning concepts used to make predictions like Decision trees, Linear regression, Random Forests and Gradient Boosting techniques. I put these concepts into practise by building a “sales deal success predictor” project that relied on CRM data downloaded from SAC so that members of the value advisory department can prioritise which deals to support first based on how likely they are to close.</t>
+          <t>In the second four months of his placement, Surya was working as an associate business analyst for the UKI Value advisory department. This meant that he created end of quarter and end of year performance reports using excel and SAP’s SAC database (SAP Analytics cloud database), highlighting trends that occurred in the period, tracking targets and analysing anomalies. he worked with tools like PowerBI, excel and SAC cloud to source data, clean them, interpret data and visualise results.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>To build the sales deal predictor project I created a dataset that had information about a 100 sales deals classified as successful or lost, which included relevant variables in predicting success of a deal that were chosen based on the personal experience of my colleagues. After dividing them into training and test dataset, I tested different predictive models to predict the success of deals with cross validation in scikit-learn and identified that Random forests had the highest accuracy in predicting deal success. After tuning hyper-parameters like max depth and number of decision trees, I arrived at a model accuracy of 65%. Through experience my colleagues identified that even SAP’s internal deal prioritiser that is based on similar data sources can only offer such level of accuracy. Hence I was able to replicate the deal success predictor that we used within the company and was a</t>
+          <t>During the last five months of his placement program, between March 2024 and July 2024 Surya is working as an associate GenAI engineer shadowing an experienced colleague from the field where he is learning about building RAG chatbots in python and the langchain framework using open source tools, evaluating and improving their performance using the phoenix framework to evaluate their reliability, relevancy and hallucination metrics. 
+During the first four months of placement period he was self learning the basic’s of artificial intelligence by taking CS50’s Introduction to machine learning course where he learnt different AI algorithms that were being used before machine learning became popular like Depth first search, Best-First search, KNN algorithms.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>that even SAP’s internal deal prioritiser that is based on similar data sources can only offer such level of accuracy. Hence I was able to replicate the deal success predictor that we used within the company and was a fun experience where I learned about the basics of machine learning.</t>
+          <t>During the second four months of the placement period, Surya self-taught himself machine learning in python where he learnt about the different machine learning concepts used to make predictions like Decision trees, Linear regression, Random Forests and Gradient Boosting techniques. he put these concepts into practise by building a “sales deal success predictor” project that relied on CRM data downloaded from SAC so that members of the value advisory department can prioritise which deals to support first based on how likely they are to close.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>During the last five months of the placement period, I also self-taught myself about building deep learning models with pytorch outside of my work hours to understand the math and logic behind modern Generative AI technology. I’ve learnt about the basics of pytroch, training a simple neural network, building a convolutional neural network, using residual blocks, weight decay and learning rate scheduling to improve performance, training a neural network on GPU, the ResNet9 architecture for image classification and hyper-paramater tuning to build, train and improve the performance of a neural network while tackling the vanishing gradient problem.</t>
+          <t>To build the sales deal predictor project Surya created a dataset that had information about a 100 sales deals classified as successful or lost, which included relevant variables in predicting success of a deal that were chosen based on the personal experience of his colleagues. After dividing them into training and test dataset, he tested different predictive models to predict the success of deals with cross validation in scikit-learn and identified that Random forests had the highest accuracy in predicting deal success. After tuning hyper-parameters like max depth and number of decision trees, he arrived at a model accuracy of 65%. Through experience his colleagues identified that even SAP’s internal deal prioritiser that is based on similar data sources can only offer such level of accuracy. Hence he was able to replicate the deal success predictor that we used within the company and</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Skills I’ve developed for being an AI engineer: During high school and university I’ve developed my python programming skills by buildings apps, servers and other side projects. During my placement program with SAP I developed my skills in machine learning and deep learning by learning to build different types of predictive models including neural networks. Working as a business analyst has allowed me to learn about data transformation, data cleaning and presenting technical information. While working as an associate GenAI engineer, I’ve learnt to build agent chains using the langchain framework in python and trace and evaluate RAG bots using the phoenix framework in python. I’ve developed all of the mentioned skills to become a high performing AI engineer. Out of all the projects I have worked on, the RAG chatbot that I built to answer questions about my CV is by far the most</t>
+          <t>identified that even SAP’s internal deal prioritiser that is based on similar data sources can only offer such level of accuracy. Hence he was able to replicate the deal success predictor that we used within the company and was a fun experience where he learned about the basics of machine learning.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>in python. I’ve developed all of the mentioned skills to become a high performing AI engineer. Out of all the projects I have worked on, the RAG chatbot that I built to answer questions about my CV is by far the most interesting for me.</t>
+          <t>During the last five months of the placement period, he also self-taught himself about building deep learning models with pytorch outside of his work hours to understand the math and logic behind modern Generative AI technology. He has learnt about the basics of pytroch, training a simple neural network, building a convolutional neural network, using residual blocks, weight decay and learning rate scheduling to improve performance, training a neural network on GPU, the ResNet9 architecture for image classification and hyper-paramater tuning to build, train and improve the performance of a neural network while tackling the vanishing gradient problem.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Job role expectations: I want to work on a role like AI engineer or ML developer or GenAI engineer, where I get to work on interesting new ideas. I want work in a role that revolves around either building applications with large language models or other Generative technologies or training and fine tuning LLMs for specific use cases. I am looking for a minimum salary of £35k pounds, preferably in London.
-Skills that I’m trying to develop: I am trying to develop my skills in learning to use Knowledge graphs in my langchain applications, learn to build multimodal retrieval applications and also learn to build and train transformer models to understand the basic technology that generative AI is dependant on.</t>
+          <t>Skills he has developed for being an AI engineer: During high school and university Surya has developed his python programming skills by buildings apps, servers and other side projects. During his placement program with SAP he developed his skills in machine learning and deep learning by learning to build different types of predictive models including neural networks. Working as a business analyst has allowed me to learn about data transformation, data cleaning and presenting technical information. While working as an associate GenAI engineer, he has learnt to build agent chains using the langchain framework in python and trace and evaluate RAG bots using the phoenix framework in python. he has developed all of the mentioned skills to become a high performing AI engineer.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>What I am doing currently: My name is Surya Govindasamy Ganesan. I am currently both a student and in full time work. I’m studying at the university of leeds and graduating in June 2025 with Bachelor of arts in Business management. As part of my course, I am currently doing a placement program with SAP as part of my degree. So, while I am working at SAP full time as an employee, I am also a student.
+          <t>Out of all the projects Surya has worked on, the RAG chatbot project that he built, is his most favourite project of all as he is fascinated by the topic of LLMs. The RAG chatbot is his most favourite project because he is fascinated by the concept of LLMs or Large language models. The RAG chatbot project is Surya’s most favourite project for this reason. Out of all the projects Surya has worked on, the RAG chatbot project that he built, is his most favourite project of all as he is fascinated by the topic of LLMs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Job role expectations: Surya is currently working at SAP as an intern till July 2024. After graduating in June 2025, he want to work on a role like AI engineer or ML developer or GenAI engineer, where he get to work on interesting new ideas. he want work in a role that revolves around either building applications with large language models or other Generative technologies or training and fine tuning LLMs for specific use cases. he is looking for a minimum salary of £35k pounds, preferably in London.
+Skills that he lacks: he is trying to develop his skills in learning to use Knowledge graphs in his langchain applications, learn to build multimodal retrieval applications and also learn to build and train transformer models to understand the basic technology that generative AI is dependent on. These are skills that Surya lacks right now but is trying to improve on.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>What he is doing currently: His name is Surya Govindasamy Ganesan. he is currently both a student and in full time work. he’m studying at the university of Leeds till June 2025 for a degree in the Bachelor of arts in Business management. So, he’m currently studying BA Business management at the University of Leeds till June 2025 and he’m working at SAP as an intern as part of their placement program.
 # Personal Summary
 Surya Govindasamy Ganesan: Aspiring AI Dev
 Hi! I’m Surya and I’m a Business Analyst
@@ -653,8 +671,8 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t># Contact Details
 ---
@@ -675,8 +693,8 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Chose the optimal cut-off value at the *pregnancy probability* with the least error rate.
 Results:
@@ -693,8 +711,8 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Result
 Worked with startup mentors from the *[Who’s Fabio?*](https://www.whosfabio.com) community to identify a value proposition and launch for the student community.
@@ -710,8 +728,8 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Ongoing Projects
 3. Deal Success Predictor (SAP)
@@ -726,8 +744,8 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Initial results &amp; Challenges:
 With initial results, model shows an accuracy of 75% with labelled test data.
@@ -764,8 +782,8 @@
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>- Executive communication
 - Market Research
@@ -782,24 +800,22 @@
 - Value Advisor at SAP (13 months)
     (Business student at Leeds, graduating Sept 2025)
 # The Guilty Project
-A Python app that makes a daily forecast on how much the user is expected to spend that month based on their spending so far and sends an email notification to the user if the forecasted amount is more than their budget saying they should spend only 'x' amount today if they want to get back on track with their budget. 
-The app is made with streamlit, firebase and the nordigen (Gocardless) API.
+The Guilty project is a budgeting app for minimalist students who want to control their impulse spending behaviour. It was founded by Surya during the second year of his university. The app is developed with Flutter for the frontend and Pythonf or the backend.
 #  How the Guilty project app works</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>The app is made with streamlit, firebase and the nordigen (Gocardless) API.
-#  How the Guilty project app works
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>#  How the Guilty project app works
 The app is designed as a web application and is made with streamlit due to its simple and easy nature. Users can sign up for the app by providing info on their budget, email address and connecting their bank account to track and receive emails when their forecasted spending for the month exceeds their budget, along with how much they should spend that day to get back on track with spending under budget. 
 The app uses nordigen (GoCardless) to connect to the users' bank accounts, and store authentication tokens and user info during the onboarding process in firebase.</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>The app uses nordigen (GoCardless) to connect to the users' bank accounts, and store authentication tokens and user info during the onboarding process in firebase.
 Once signed up, the user will receive an onboarding email giving instructions on how the forecasting is calculated when they will typically receive emails and the conetents of the email (such as expected monthly spend, how much to spend that day to get back on track, and what to do if they have unavoidable incoming expenses)
@@ -809,8 +825,8 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>The amount of money spent in the last 7 days divided by 7 provides the **average spending rate**, which is multiplied by the days remaining in the budget month to forecast the money spent that month.
 When calculating the total money spent in a time period, if 'x' pounds are spent from the bank account and 'x' pounds are sent to the bank account, then it is considered as no money spent. This is to take into account friends splitting bills, and paying back any previous expenses
@@ -819,8 +835,8 @@
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t># Challenges faced in the Guilty Project:
 Finding a suitable library to connect to the user's bank data was difficult as it needed to be both simple and cost-effective for an open-source free-to-use project. Among many other options (ex: Plaid, TrueLayer) Nordigen was the the best fit in these categories.
@@ -830,8 +846,8 @@
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t># Features for the future of the Guilty Project
 Display all transactions and select transactions that are not part of the budget to exclude them from all calculations
